--- a/medicine/Enfance/Jean-Philippe_Arrou-Vignod/Jean-Philippe_Arrou-Vignod.xlsx
+++ b/medicine/Enfance/Jean-Philippe_Arrou-Vignod/Jean-Philippe_Arrou-Vignod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Philippe Arrou-Vignod, né à Bordeaux le 18 septembre 1958, est un écrivain français, auteur de romans pour la jeunesse et pour les adultes. 
 Il est connu notamment pour la série Enquête au collège et les histoires de Jean Quelque-Chose. Il a écrit de nombreux livres comme Le Professeur a disparu ! 
@@ -514,19 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et formation
-Jean-Philippe Arrou-Vignod est né à Bordeaux le 18 septembre 1958. Ancien élève de l'École Normale Supérieure de Saint-Cloud, il est agrégé de lettres modernes.
-Jean-Philippe Arrou-Vignod est né à Bordeaux le 18 septembre 1958 du mariage de Jean-Louis Arrou-Vignod, neuropsychiatre, et de Janine Babin[1]. De ce mariage sont nés six garçons : Jean-Pascal (né le 9 mai 1957, ingénieur diplômé Télécom Paris 1979[2], directeur au sein du groupe Thales[3]), Jean-Philippe, Jean-François (diplômé du centre de formation des journalistes, auteur des documentaires Azimuts), Jean-Noël, Jean-Baptiste (directeur au sein du groupe Thales[4]), Jean-Charles[1].
-Le 14 juillet 1979, il épouse Patricia LLobell, institutrice ; de ce mariage sont nés deux enfants[1].
-Ancien élève du lycée Masséna à Nice[1], entré à l'École normale supérieure de Saint-Cloud (lettres) en 1978, Jean-Philippe Arrou-Vignod est agrégé de lettres modernes en 1981[5].
-Vie professionnelle
-Après avoir enseigné durant de nombreuses années, Jean-Philippe Arrou-Vignod est éditeur[1]. Il dirige, entre autres, les collections Page blanche et Hors-Piste chez Gallimard Jeunesse. 
-Boulimique de lecture durant toute son enfance, il s'essaie très tôt à l'écriture et publie son premier roman en 1984 chez Gallimard, Le rideau sur la nuit qui obtient le prix du Premier roman[6].
-Lorsqu'il écrit pour les enfants, il se fie à ses souvenirs, avec le souci constant d'offrir à ses lecteurs des livres qu'il aimait lire à leur âge : « J'ai lu toute la Bibliothèque rose et verte. J'étais un lecteur boulimique. C'est à ces lectures de jeunesse que je dois d'être devenu écrivain »[5].
-En 1997, il est lauréat du prix Renaudot des lycéens pour son roman L'Homme du cinquième jour[7].
-Dans la collection Folio Junior, il publie, la série Enquête au collège, illustrée par Serge Bloch, et les Histoires des Jean-Quelque-chose, inspirées de ses souvenirs d'enfance dans une famille de six garçons.
-En 2006, il crée les personnages de la série Rita et Machin, illustrée par Olivier Tallec. La série est traduite dans plus de 14 langues[8]. Elle est adaptée en série animée à la télévision[9], puis sur grand écran en février 2019[8] dans Les Aventures de Rita et Machin.
-En 2015, il préside le Grand Prix des Lecteurs du Journal de Mickey, dont il a été le lauréat en 2011 pour son livre Magnus Million.
+          <t>Famille et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Philippe Arrou-Vignod est né à Bordeaux le 18 septembre 1958. Ancien élève de l'École Normale Supérieure de Saint-Cloud, il est agrégé de lettres modernes.
+Jean-Philippe Arrou-Vignod est né à Bordeaux le 18 septembre 1958 du mariage de Jean-Louis Arrou-Vignod, neuropsychiatre, et de Janine Babin. De ce mariage sont nés six garçons : Jean-Pascal (né le 9 mai 1957, ingénieur diplômé Télécom Paris 1979, directeur au sein du groupe Thales), Jean-Philippe, Jean-François (diplômé du centre de formation des journalistes, auteur des documentaires Azimuts), Jean-Noël, Jean-Baptiste (directeur au sein du groupe Thales), Jean-Charles.
+Le 14 juillet 1979, il épouse Patricia LLobell, institutrice ; de ce mariage sont nés deux enfants.
+Ancien élève du lycée Masséna à Nice, entré à l'École normale supérieure de Saint-Cloud (lettres) en 1978, Jean-Philippe Arrou-Vignod est agrégé de lettres modernes en 1981.
 </t>
         </is>
       </c>
@@ -552,13 +561,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir enseigné durant de nombreuses années, Jean-Philippe Arrou-Vignod est éditeur. Il dirige, entre autres, les collections Page blanche et Hors-Piste chez Gallimard Jeunesse. 
+Boulimique de lecture durant toute son enfance, il s'essaie très tôt à l'écriture et publie son premier roman en 1984 chez Gallimard, Le rideau sur la nuit qui obtient le prix du Premier roman.
+Lorsqu'il écrit pour les enfants, il se fie à ses souvenirs, avec le souci constant d'offrir à ses lecteurs des livres qu'il aimait lire à leur âge : « J'ai lu toute la Bibliothèque rose et verte. J'étais un lecteur boulimique. C'est à ces lectures de jeunesse que je dois d'être devenu écrivain ».
+En 1997, il est lauréat du prix Renaudot des lycéens pour son roman L'Homme du cinquième jour.
+Dans la collection Folio Junior, il publie, la série Enquête au collège, illustrée par Serge Bloch, et les Histoires des Jean-Quelque-chose, inspirées de ses souvenirs d'enfance dans une famille de six garçons.
+En 2006, il crée les personnages de la série Rita et Machin, illustrée par Olivier Tallec. La série est traduite dans plus de 14 langues. Elle est adaptée en série animée à la télévision, puis sur grand écran en février 2019 dans Les Aventures de Rita et Machin.
+En 2015, il préside le Grand Prix des Lecteurs du Journal de Mickey, dont il a été le lauréat en 2011 pour son livre Magnus Million.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Littérature générale
-Aux éditions Gallimard
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aux éditions Gallimard
 1984: Le Rideau sur la nuit, roman. Prix du premier roman.
 1987: Un amateur en sentiments, roman.
 1989 : Le Cabinet à éclipses, roman.
@@ -574,10 +631,47 @@
 1989: L’Afrique intérieure, récit (Arléa)
 1998: Les Jours d’avant, roman (Belfond)
 2003: Être heureux, essai (Arléa)
-2006: Ferreira revient, roman (Belfond)
-Œuvres jeunesse
-Depuis 1989 : Série Enquête au collège
-Illustrations de Serge Bloch, aux éditions Gallimard Jeunesse
+2006: Ferreira revient, roman (Belfond)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Œuvres jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Depuis 1989 : Série Enquête au collège</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Illustrations de Serge Bloch, aux éditions Gallimard Jeunesse
 1989 : Le professeur a disparu
 1991 : Enquête au collège
 1993 : P.P. Cul-Vert détective privé
@@ -588,9 +682,47 @@
 2019 : L'élève qui n'existait pas
 Intégrales
 2012 : Enquête au collège (Intégrale 1 - saisons 1 à 3)
-2013 : Enquête au collège (Intégrale 2 - saisons 4 à 6)
-Depuis 2000 : Série Histoires des Jean-Quelque-chose
-Illustrations de Dominique Corbasson (1958-2018), aux éditions Gallimard Jeunesse
+2013 : Enquête au collège (Intégrale 2 - saisons 4 à 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Depuis 2000 : Série Histoires des Jean-Quelque-chose</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Illustrations de Dominique Corbasson (1958-2018), aux éditions Gallimard Jeunesse
 2000 : L'Omelette au sucre
 2003 : Le Camembert volant
 2007 : La Soupe de poissons rouges
@@ -602,89 +734,203 @@
 2022 : Les recettes du chef
 Intégrales
 2014 : Une famille aux petits oignons (Intégrale 1 - saisons 1 à 3)
-2018 : Une famille aux petits oignons (Intégrale 2 - saisons 4 à 6)
-Autres romans
-Aux éditions Gallimard Jeunesse
-Le Collège fantôme, éd. Gallimard Jeunesse  (ISBN 2-07059-467-X)[10]
-Bon Anniversaire, éd. Gallimard Jeunesse  (ISBN 978-2-07055-175-0)[11]
+2018 : Une famille aux petits oignons (Intégrale 2 - saisons 4 à 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Œuvres jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aux éditions Gallimard Jeunesse
+Le Collège fantôme, éd. Gallimard Jeunesse  (ISBN 2-07059-467-X)
+Bon Anniversaire, éd. Gallimard Jeunesse  (ISBN 978-2-07055-175-0)
 L'invité des CE2, éd. Gallimard Jeunesse
 Agence Pertinax, éd. Gallimard Jeunesse
-Magnus Million et le Dortoir des cauchemars, éd. Gallimard Jeunesse  (ISBN 978-2-07063-890-1)[12]
+Magnus Million et le Dortoir des cauchemars, éd. Gallimard Jeunesse  (ISBN 978-2-07063-890-1)
 Mimsy Pocket et les Enfants sans nom, éd. Gallimard Jeunesse
 Olympe de Roquedor, coécrit et illustré par François Place), éd. Gallimard Jeunesse
 Chez d'autres éditeurs
 Léo des villes, Léo des champs (Thierry Magnier)
-Le livre dont je ne suis pas le héros (L'École des loisirs)
-Albums
-Aux éditions Gallimard Jeunesse
+Le livre dont je ne suis pas le héros (L'École des loisirs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Œuvres jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Aux éditions Gallimard Jeunesse
 Série Rita et Machin, illustrée par Olivier Tallec
 Louise Titi, illustré par Soledad
 Le Prince sauvage et la Renarde, illustré par Jean-Claude Götting
 Comment Askoura inventa l’écriture, illustré par Tali Pardesa
-Héros et Personnages de roman, co-écrit avec Patricia Arrou-Vignod
-Théâtre
-2000 : Femmes
+Héros et Personnages de roman, co-écrit avec Patricia Arrou-Vignod</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2000 : Femmes
 2004 : Compartiment séducteur, de Jean-Philippe Arrou-Vignod, mise en scène de Jean-Pierre Bouvier, seul en scène, au Théâtre du Palais-Royal à Paris.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Philippe_Arrou-Vignod</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Sa série jeunesse Rita et Machin, qu'il a écrite, illustrée par Olivier Tallec est adaptée :
-en une série télévisée franco- japonaise d'animation Rita et Machin, diffusée en France sur France 5 en 2012[9] ;
-au cinéma, en février 2019, dans Les Aventures de Rita et Machin, une série d'animation franco-japonaise de 10 courts métrages[8], réalisée par Pon Kozutsumi et Jun Takagi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jean-Philippe_Arrou-Vignod</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+en une série télévisée franco- japonaise d'animation Rita et Machin, diffusée en France sur France 5 en 2012 ;
+au cinéma, en février 2019, dans Les Aventures de Rita et Machin, une série d'animation franco-japonaise de 10 courts métrages, réalisée par Pon Kozutsumi et Jun Takagi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Philippe_Arrou-Vignod</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
